--- a/att/src/main/resources/incidents/Tennis/TennisImgE2E.xlsx
+++ b/att/src/main/resources/incidents/Tennis/TennisImgE2E.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pelumalai\sportsbookautomation\src\main\resources\incidents\Tennis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgurjar\IdeaProjects\cucumberautomation\att\src\main\resources\incidents\Tennis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57246DB-962D-488D-BDFE-98C1A480DCBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="set1" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="131">
   <si>
     <t>matchTime</t>
   </si>
@@ -426,7 +427,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,28 +759,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875"/>
-    <col min="2" max="2" width="5.7109375"/>
-    <col min="3" max="3" width="6.42578125"/>
-    <col min="4" max="4" width="6.85546875"/>
-    <col min="5" max="5" width="8.42578125"/>
-    <col min="6" max="6" width="8.28515625"/>
-    <col min="7" max="7" width="3.5703125"/>
-    <col min="8" max="8" width="5.85546875"/>
-    <col min="9" max="9" width="6.5703125"/>
-    <col min="10" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="10.81640625"/>
+    <col min="2" max="2" width="5.7265625"/>
+    <col min="3" max="3" width="6.453125"/>
+    <col min="4" max="4" width="6.81640625"/>
+    <col min="5" max="5" width="8.453125"/>
+    <col min="6" max="6" width="8.26953125"/>
+    <col min="7" max="7" width="3.54296875"/>
+    <col min="8" max="8" width="5.81640625"/>
+    <col min="9" max="9" width="6.54296875"/>
+    <col min="10" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,7 +809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -825,7 +826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -842,7 +843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>12</v>
       </c>
@@ -856,7 +857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -886,7 +887,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -915,7 +916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -944,7 +945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -973,9 +974,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -987,12 +1003,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1016,12 +1032,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1045,12 +1061,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1059,7 +1075,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
         <v>111</v>
@@ -1074,12 +1090,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1097,15 +1113,30 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1117,12 +1148,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1146,12 +1177,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1160,7 +1191,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
         <v>111</v>
@@ -1175,12 +1206,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1189,7 +1220,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
         <v>111</v>
@@ -1198,18 +1229,18 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1227,15 +1258,30 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1247,12 +1293,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1261,7 +1307,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" t="s">
         <v>111</v>
@@ -1276,12 +1322,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1290,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
         <v>111</v>
@@ -1299,18 +1345,18 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1319,7 +1365,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
         <v>111</v>
@@ -1328,18 +1374,18 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1357,15 +1403,30 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>111</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1377,9 +1438,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -1391,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
         <v>111</v>
@@ -1400,15 +1461,15 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1420,7 +1481,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
         <v>111</v>
@@ -1429,15 +1490,15 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1449,7 +1510,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
         <v>111</v>
@@ -1458,15 +1519,15 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1478,7 +1539,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
         <v>111</v>
@@ -1487,139 +1548,9 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>6</v>
-      </c>
-      <c r="I32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>6</v>
-      </c>
-      <c r="I33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1630,19 +1561,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1671,9 +1602,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1685,12 +1631,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1714,12 +1660,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1743,12 +1689,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1760,7 +1706,7 @@
         <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1772,12 +1718,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1795,15 +1741,30 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1815,12 +1776,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1844,12 +1805,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1861,7 +1822,7 @@
         <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1873,12 +1834,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1890,24 +1851,24 @@
         <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -1925,15 +1886,30 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1945,12 +1921,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1962,7 +1938,7 @@
         <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1974,12 +1950,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1991,24 +1967,24 @@
         <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -2020,24 +1996,24 @@
         <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -2055,15 +2031,30 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>121</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2075,9 +2066,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -2092,21 +2083,21 @@
         <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -2121,21 +2112,21 @@
         <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
@@ -2150,21 +2141,21 @@
         <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -2179,38 +2170,53 @@
         <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>122</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
@@ -2222,24 +2228,24 @@
         <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
@@ -2251,24 +2257,24 @@
         <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
@@ -2280,174 +2286,15 @@
         <v>117</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="I26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-      <c r="I31" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2458,19 +2305,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2499,7 +2346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>12</v>
       </c>
@@ -2513,7 +2360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -2526,8 +2373,8 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>6</v>
+      <c r="E3" t="s">
+        <v>117</v>
       </c>
       <c r="F3" t="s">
         <v>123</v>
@@ -2542,7 +2389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
@@ -2555,8 +2402,8 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>6</v>
+      <c r="E4" t="s">
+        <v>117</v>
       </c>
       <c r="F4" t="s">
         <v>123</v>
@@ -2571,7 +2418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
@@ -2584,8 +2431,8 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>6</v>
+      <c r="E5" t="s">
+        <v>117</v>
       </c>
       <c r="F5" t="s">
         <v>123</v>
@@ -2600,7 +2447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>72</v>
       </c>
@@ -2629,7 +2476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>12</v>
       </c>
@@ -2643,7 +2490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
@@ -2672,7 +2519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
@@ -2701,7 +2548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -2730,7 +2577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -2759,7 +2606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>12</v>
       </c>
@@ -2773,7 +2620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -2802,7 +2649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>78</v>
       </c>
@@ -2831,7 +2678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
@@ -2860,7 +2707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
@@ -2889,7 +2736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -2903,7 +2750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
@@ -2932,7 +2779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>82</v>
       </c>
@@ -2961,7 +2808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
@@ -2990,7 +2837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
@@ -3019,7 +2866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>12</v>
       </c>
@@ -3033,7 +2880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
@@ -3062,7 +2909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -3091,7 +2938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>87</v>
       </c>
@@ -3120,7 +2967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>88</v>
       </c>
@@ -3149,7 +2996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>12</v>
       </c>
@@ -3163,7 +3010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>89</v>
       </c>
@@ -3192,7 +3039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>90</v>
       </c>
@@ -3221,7 +3068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -3250,7 +3097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -3279,7 +3126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
@@ -3309,20 +3156,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.28515625"/>
-    <col min="2" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="32.26953125"/>
+    <col min="2" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -3333,7 +3180,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -3344,7 +3191,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -3355,7 +3202,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -3366,7 +3213,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -3377,7 +3224,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -3388,7 +3235,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -3399,7 +3246,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -3417,22 +3264,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625"/>
-    <col min="2" max="2" width="8.5703125"/>
-    <col min="3" max="3" width="13.5703125"/>
-    <col min="4" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="17.1796875"/>
+    <col min="2" max="2" width="8.54296875"/>
+    <col min="3" max="3" width="13.54296875"/>
+    <col min="4" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -3443,7 +3290,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -3454,7 +3301,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -3465,7 +3312,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -3476,7 +3323,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -3487,7 +3334,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -3498,7 +3345,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -3509,7 +3356,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>110</v>
       </c>
